--- a/Data/EC/NIT-9008743737.xlsx
+++ b/Data/EC/NIT-9008743737.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88247A6E-6B4D-4B21-939E-8DF2BB986237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7D5A39A-F739-4806-BEAA-A37D4EF67FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A4E54625-9CAC-4E10-ADE8-23660F7A6081}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{43A7375E-4B23-4888-9CA0-DE90ED0CA5CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,169 +71,169 @@
     <t>DIYORVI XAVIER PEREZ MARTINEZ</t>
   </si>
   <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
     <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -332,7 +332,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -345,9 +347,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -547,23 +547,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,10 +591,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,7 +647,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B26C65A-4F55-6582-19AF-FEBDBBDFF11E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A7DF1D-4608-7374-A7F7-C80C2B2644D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -998,7 +998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F90A636-1D58-4DA5-808C-DD964CC6E79A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852900D1-D5C3-4443-8940-C162322634E3}">
   <dimension ref="B2:J76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1176,7 +1176,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>23958</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1199,7 +1199,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1222,7 +1222,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1245,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1268,7 +1268,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1291,7 +1291,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1314,7 +1314,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1337,7 +1337,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1360,7 +1360,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1383,7 +1383,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1406,7 +1406,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1429,7 +1429,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1452,7 +1452,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1475,7 +1475,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1498,7 +1498,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1521,7 +1521,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1544,7 +1544,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1567,7 +1567,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1590,7 +1590,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1613,7 +1613,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1636,7 +1636,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1659,7 +1659,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1682,7 +1682,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1705,7 +1705,7 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1889,7 +1889,7 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1912,7 +1912,7 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1935,7 +1935,7 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1958,7 +1958,7 @@
         <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -1981,7 +1981,7 @@
         <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2004,7 +2004,7 @@
         <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2027,7 +2027,7 @@
         <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2050,7 +2050,7 @@
         <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2073,7 +2073,7 @@
         <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2096,7 +2096,7 @@
         <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2119,7 +2119,7 @@
         <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2142,7 +2142,7 @@
         <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2165,7 +2165,7 @@
         <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2188,7 +2188,7 @@
         <v>55</v>
       </c>
       <c r="F60" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2211,7 +2211,7 @@
         <v>56</v>
       </c>
       <c r="F61" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2234,7 +2234,7 @@
         <v>57</v>
       </c>
       <c r="F62" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2257,7 +2257,7 @@
         <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2280,7 +2280,7 @@
         <v>59</v>
       </c>
       <c r="F64" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2303,7 +2303,7 @@
         <v>60</v>
       </c>
       <c r="F65" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2326,7 +2326,7 @@
         <v>61</v>
       </c>
       <c r="F66" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2349,7 +2349,7 @@
         <v>62</v>
       </c>
       <c r="F67" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2372,7 +2372,7 @@
         <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2395,7 +2395,7 @@
         <v>64</v>
       </c>
       <c r="F69" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2418,7 +2418,7 @@
         <v>65</v>
       </c>
       <c r="F70" s="24">
-        <v>27578</v>
+        <v>23958</v>
       </c>
       <c r="G70" s="24">
         <v>781242</v>
